--- a/biology/Botanique/Adonis_d'automne/Adonis_d'automne.xlsx
+++ b/biology/Botanique/Adonis_d'automne/Adonis_d'automne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adonis_d%27automne</t>
+          <t>Adonis_d'automne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adonis d'automne, adonis annuelle ou Adonis goutte-de-sang (Adonis annua) est une espèce de plante de la famille des Ranunculaceae.
-Elle se nomme Blooddrop ("Goutte de sang"), Red Chamomile ("camomille rouge"), Rose-a-rubie ("rubis rose"), Pheasant's eye ("Œil du faisan") en Grande-Bretagne, Adonide annua en Italie, Adonis de otoño, Estella de camp, Estrella de camp, Gota de sangre en Espagne et Herbst-Adonisröschen, Herbst-Blutströpfchen en Allemagne[1].
+Elle se nomme Blooddrop ("Goutte de sang"), Red Chamomile ("camomille rouge"), Rose-a-rubie ("rubis rose"), Pheasant's eye ("Œil du faisan") en Grande-Bretagne, Adonide annua en Italie, Adonis de otoño, Estella de camp, Estrella de camp, Gota de sangre en Espagne et Herbst-Adonisröschen, Herbst-Blutströpfchen en Allemagne.
 Elle tire son nom de la légende d'Adonis.
-Cette plante est toxique (mortelle) pour les chevaux[2].
+Cette plante est toxique (mortelle) pour les chevaux.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adonis_d%27automne</t>
+          <t>Adonis_d'automne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,18 +528,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Caractéristiques
-Organes reproducteurs[3]
-La floraison a lieu de mars à juillet[4].
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
+La floraison a lieu de mars à juillet.
 Couleur dominante des fleurs : rose
 Inflorescence : cyme unipare hélicoïde
 Sexualité : hermaphrodite
 Ordre de maturation : homogame
 Pollinisation : entomogame
-Graine[3]
+Graine
 Fruit : akène
 Dissémination : épizoochore
-Habitat et répartition[3]
+Habitat et répartition
 Habitat type : friches annuelles hygrophiles eutrophiles pionnières, eurasiatiques
 Aire de répartition : eurasiatique méridional</t>
         </is>
@@ -539,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adonis_d%27automne</t>
+          <t>Adonis_d'automne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,11 +574,13 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen, ainsi que dans l'ouest et le centre de l'Europe et jusqu'en Grande-Bretagne[4].
-En France elle est présente dans la majorité des départements, mais elle est absente dans 22 départements pour telebotanica, 47 pour l'INPN[1],[5].
-Elle fait partie des espèces végétales menacées de France métropolitaine[réf. nécessaire]. Ce taxon n'est pas protégé[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen, ainsi que dans l'ouest et le centre de l'Europe et jusqu'en Grande-Bretagne.
+En France elle est présente dans la majorité des départements, mais elle est absente dans 22 départements pour telebotanica, 47 pour l'INPN,.
+Elle fait partie des espèces végétales menacées de France métropolitaine[réf. nécessaire]. Ce taxon n'est pas protégé
 </t>
         </is>
       </c>
@@ -572,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adonis_d%27automne</t>
+          <t>Adonis_d'automne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +609,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est mortelle par ingestion pour les chevaux à niveau de 200g / animal ; toxique à partir de 50g par animal.[réf. nécessaire]
 </t>
